--- a/all_DE/Herta Müller.xlsx
+++ b/all_DE/Herta Müller.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10212"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24131"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ninaerlacher/Documents/GitHub/COINS_SwissTribeleaders/Data Collection/Persons/Herta Müller/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Johanna\Documents\GitHub\COINS_SwissTribeleaders\all_DE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22C735D6-4613-3F41-907F-628FE40EFCD1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D655488D-7D50-472D-A5A8-7AD04449593D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="25600" windowHeight="14300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="601" uniqueCount="446">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="600" uniqueCount="445">
   <si>
     <t>title</t>
   </si>
@@ -1663,9 +1663,6 @@
 Mai 2020 | Anpfiff: 18.30 Uhr (heute) Ort Olympiastadion, Berlin TV DAZN 1 LIVE-STREAM DAZNWer zeigt / überträgt Hertha BSC vs. SC Freiburg heute live im TV?
 DAZN zeigt / überträgt Hertha BSC vs. SC Freiburg heute im TV auf dem linearen Kanal DAZN 1Mittlerweile ist der Streamingdienst auch via Kabel empfangbar.
 DAZN zeigt / überträgt Hertha BSC vs. SC Freiburg heute im STREAM auf dem Smart-TVAußerdem gibt es noch eine weitere Alternative.</t>
-  </si>
-  <si>
-    <t>flag</t>
   </si>
 </sst>
 </file>
@@ -1736,14 +1733,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Link" xfId="1" builtinId="8"/>
@@ -2025,15 +2021,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J87"/>
+  <dimension ref="A1:I87"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M21" sqref="M21"/>
+      <selection activeCell="J1" sqref="J1:J1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2058,11 +2054,8 @@
       <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="4" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -2087,11 +2080,8 @@
       <c r="I2" t="s">
         <v>14</v>
       </c>
-      <c r="J2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -2116,11 +2106,8 @@
       <c r="I3" t="s">
         <v>22</v>
       </c>
-      <c r="J3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -2145,11 +2132,8 @@
       <c r="I4" t="s">
         <v>28</v>
       </c>
-      <c r="J4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -2174,11 +2158,8 @@
       <c r="I5" t="s">
         <v>34</v>
       </c>
-      <c r="J5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -2203,11 +2184,8 @@
       <c r="I6" t="s">
         <v>40</v>
       </c>
-      <c r="J6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -2232,11 +2210,8 @@
       <c r="I7" t="s">
         <v>45</v>
       </c>
-      <c r="J7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>8</v>
       </c>
@@ -2261,11 +2236,8 @@
       <c r="I8" t="s">
         <v>51</v>
       </c>
-      <c r="J8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>10</v>
       </c>
@@ -2290,11 +2262,8 @@
       <c r="I9" t="s">
         <v>58</v>
       </c>
-      <c r="J9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>11</v>
       </c>
@@ -2319,11 +2288,8 @@
       <c r="I10" t="s">
         <v>64</v>
       </c>
-      <c r="J10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>12</v>
       </c>
@@ -2348,11 +2314,8 @@
       <c r="I11" t="s">
         <v>69</v>
       </c>
-      <c r="J11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>13</v>
       </c>
@@ -2377,11 +2340,8 @@
       <c r="I12" t="s">
         <v>74</v>
       </c>
-      <c r="J12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>14</v>
       </c>
@@ -2406,11 +2366,8 @@
       <c r="I13" t="s">
         <v>80</v>
       </c>
-      <c r="J13">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>15</v>
       </c>
@@ -2435,11 +2392,8 @@
       <c r="I14" t="s">
         <v>85</v>
       </c>
-      <c r="J14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>16</v>
       </c>
@@ -2464,11 +2418,8 @@
       <c r="I15" t="s">
         <v>90</v>
       </c>
-      <c r="J15">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>18</v>
       </c>
@@ -2493,11 +2444,8 @@
       <c r="I16" t="s">
         <v>95</v>
       </c>
-      <c r="J16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>19</v>
       </c>
@@ -2522,11 +2470,8 @@
       <c r="I17" t="s">
         <v>100</v>
       </c>
-      <c r="J17">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>20</v>
       </c>
@@ -2551,11 +2496,8 @@
       <c r="I18" t="s">
         <v>105</v>
       </c>
-      <c r="J18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>21</v>
       </c>
@@ -2580,11 +2522,8 @@
       <c r="I19" t="s">
         <v>111</v>
       </c>
-      <c r="J19">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>22</v>
       </c>
@@ -2609,11 +2548,8 @@
       <c r="I20" t="s">
         <v>116</v>
       </c>
-      <c r="J20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>23</v>
       </c>
@@ -2639,7 +2575,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>24</v>
       </c>
@@ -2665,7 +2601,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>25</v>
       </c>
@@ -2688,7 +2624,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>26</v>
       </c>
@@ -2714,7 +2650,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>27</v>
       </c>
@@ -2740,7 +2676,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>28</v>
       </c>
@@ -2763,7 +2699,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>29</v>
       </c>
@@ -2789,7 +2725,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>30</v>
       </c>
@@ -2815,7 +2751,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>31</v>
       </c>
@@ -2841,7 +2777,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>32</v>
       </c>
@@ -2867,7 +2803,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>33</v>
       </c>
@@ -2893,7 +2829,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>34</v>
       </c>
@@ -2919,7 +2855,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>35</v>
       </c>
@@ -2945,7 +2881,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>36</v>
       </c>
@@ -2968,7 +2904,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>37</v>
       </c>
@@ -2994,7 +2930,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>38</v>
       </c>
@@ -3020,7 +2956,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>39</v>
       </c>
@@ -3046,7 +2982,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>40</v>
       </c>
@@ -3072,7 +3008,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>41</v>
       </c>
@@ -3098,7 +3034,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>42</v>
       </c>
@@ -3124,7 +3060,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>43</v>
       </c>
@@ -3150,7 +3086,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>44</v>
       </c>
@@ -3176,7 +3112,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>45</v>
       </c>
@@ -3202,7 +3138,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>46</v>
       </c>
@@ -3228,7 +3164,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>47</v>
       </c>
@@ -3254,7 +3190,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>48</v>
       </c>
@@ -3280,7 +3216,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>49</v>
       </c>
@@ -3306,7 +3242,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>50</v>
       </c>
@@ -3332,7 +3268,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>51</v>
       </c>
@@ -3358,7 +3294,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>52</v>
       </c>
@@ -3381,7 +3317,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>53</v>
       </c>
@@ -3407,7 +3343,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>54</v>
       </c>
@@ -3433,7 +3369,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>55</v>
       </c>
@@ -3456,7 +3392,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>56</v>
       </c>
@@ -3482,7 +3418,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>57</v>
       </c>
@@ -3508,7 +3444,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>58</v>
       </c>
@@ -3534,7 +3470,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <v>59</v>
       </c>
@@ -3560,7 +3496,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>60</v>
       </c>
@@ -3586,7 +3522,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>61</v>
       </c>
@@ -3612,7 +3548,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>62</v>
       </c>
@@ -3638,7 +3574,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>63</v>
       </c>
@@ -3664,7 +3600,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>64</v>
       </c>
@@ -3690,7 +3626,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
         <v>65</v>
       </c>
@@ -3716,7 +3652,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>66</v>
       </c>
@@ -3742,7 +3678,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>67</v>
       </c>
@@ -3768,7 +3704,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>68</v>
       </c>
@@ -3794,7 +3730,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <v>69</v>
       </c>
@@ -3820,7 +3756,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <v>70</v>
       </c>
@@ -3846,7 +3782,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
         <v>71</v>
       </c>
@@ -3872,7 +3808,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
         <v>72</v>
       </c>
@@ -3898,7 +3834,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
         <v>73</v>
       </c>
@@ -3924,7 +3860,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
         <v>74</v>
       </c>
@@ -3947,7 +3883,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
         <v>75</v>
       </c>
@@ -3973,7 +3909,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
         <v>76</v>
       </c>
@@ -3996,7 +3932,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
         <v>77</v>
       </c>
@@ -4022,7 +3958,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
         <v>78</v>
       </c>
@@ -4045,7 +3981,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
         <v>79</v>
       </c>
@@ -4071,7 +4007,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
         <v>80</v>
       </c>
@@ -4100,7 +4036,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
         <v>81</v>
       </c>
@@ -4129,7 +4065,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
         <v>82</v>
       </c>
@@ -4158,7 +4094,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A81" s="1">
         <v>83</v>
       </c>
@@ -4187,7 +4123,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A82" s="1">
         <v>84</v>
       </c>
@@ -4213,7 +4149,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A83" s="1">
         <v>85</v>
       </c>
@@ -4242,7 +4178,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A84" s="1">
         <v>86</v>
       </c>
@@ -4268,7 +4204,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A85" s="1">
         <v>87</v>
       </c>
@@ -4297,7 +4233,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A86" s="1">
         <v>88</v>
       </c>
@@ -4326,7 +4262,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A87" s="1">
         <v>89</v>
       </c>
